--- a/biology/Mycologie/Gonidie/Gonidie.xlsx
+++ b/biology/Mycologie/Gonidie/Gonidie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une gonidie (du grec ancien γονεία / goneía, « génération ») est une cellule (cyanobactérie, algue verte) ou un groupement de cellules reproductrices. Lors de la reproduction asexuée, les cellules fertiles se développent en spores immobiles, les gonidies, ou en spores mobiles, les zoospores[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une gonidie (du grec ancien γονεία / goneía, « génération ») est une cellule (cyanobactérie, algue verte) ou un groupement de cellules reproductrices. Lors de la reproduction asexuée, les cellules fertiles se développent en spores immobiles, les gonidies, ou en spores mobiles, les zoospores.
 </t>
         </is>
       </c>
